--- a/biology/Zoologie/Engraulis_anchoita/Engraulis_anchoita.xlsx
+++ b/biology/Zoologie/Engraulis_anchoita/Engraulis_anchoita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchois d'Argentine
-Engraulis anchoita, l’Anchois d'Argentine[1], est une espèce de poissons de la famille des Engraulidae.
+Engraulis anchoita, l’Anchois d'Argentine, est une espèce de poissons de la famille des Engraulidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engraulis anchoita est une espèce marine qui se rencontre dans le Sud-Ouest de l'Atlantique, depuis les côtes de Rio de Janeiro au Brésil jusqu'au golfe San Jorge en Argentine[1]. Elle est présente entre 30 et 200 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engraulis anchoita est une espèce marine qui se rencontre dans le Sud-Ouest de l'Atlantique, depuis les côtes de Rio de Janeiro au Brésil jusqu'au golfe San Jorge en Argentine. Elle est présente entre 30 et 200 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engraulis anchoita mesure jusqu'à 170 mm pour un poids maximal de 25 g[1]. La maturité sexuelle est atteinte lorsque les individus mesurent entre 80 et 102 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engraulis anchoita mesure jusqu'à 170 mm pour un poids maximal de 25 g. La maturité sexuelle est atteinte lorsque les individus mesurent entre 80 et 102 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Engraulis anchoita et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson est consommé frais ou en conserve[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est consommé frais ou en conserve.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, anchoita, reprend le nom vernaculaire (Anchoíta[1]) donné à ce poisson en Argentine[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, anchoita, reprend le nom vernaculaire (Anchoíta) donné à ce poisson en Argentine.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(es) Tomás Leandro Marini, « La anchoita argentina. Su posición sistemática y su porvenir económico », Physis, Buenos Aires, vol. 11,‎ 2 février 1935, p. 445-458 (ISSN 0373-6709).</t>
         </is>
